--- a/origin_files/sklearn模型总结.xlsx
+++ b/origin_files/sklearn模型总结.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\AppData\Local\YNote\data\qq2D3A4B678FF33810FE004AFB75D53D1D\81c074acc99241f3a96e6f935155f90f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitHub\StatisticsBlog\origin_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn_有监督" sheetId="1" r:id="rId1"/>
@@ -706,9 +706,6 @@
     </r>
   </si>
   <si>
-    <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.AdaBoostClassifier.html</t>
-  </si>
-  <si>
     <t>AdaBoostRegressor</t>
   </si>
   <si>
@@ -1177,15 +1174,15 @@
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.RandomForestClassifier.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.RandomForestRegressor.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RandomForestRegressor</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1256,19 +1253,19 @@
       </rPr>
       <t>warm_start : bool, default: False</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1315,7 +1312,7 @@
       </rPr>
       <t>warm_start : bool, default: False</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>n_estimators 
@@ -1329,7 +1326,7 @@
 bootstrap : (default=True)是否对sample 进行bootstrap
 oob_score : bool (default=False)，out-of-bag，也就是测试集
 warm_start : bool, optional (default=False)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>n_estimators : integer, optional (default=10)
@@ -1343,13 +1340,13 @@
 bootstrap : (default=True)是否对sample 进行bootstrap
 oob_score : bool (default=False)，out-of-bag，也就是测试集
 warm_start : bool, optional (default=False)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">estimators_
 feature_importances_ 
 oob_score_ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1396,34 +1393,38 @@
       <t>p : integer, optional (default = 2)： Minkowski metric的阶数
 metric : string or callable, default ‘minkowski’</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.neighbors.KNeighborsClassifier.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.neighbors.KNeighborsRegressor.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.svm.LinearSVC.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.svm.SVC.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.neural_network.MLPClassifier.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.AdaBoostClassifier.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,14 +1443,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1509,12 +1502,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1530,43 +1538,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1839,836 +1847,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="5.125" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="4.375" customWidth="1"/>
+    <col min="8" max="8" width="5.08203125" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" customWidth="1"/>
     <col min="11" max="11" width="63.75" customWidth="1"/>
     <col min="12" max="12" width="82" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="15" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="57">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="85.5">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="142.5">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13" ht="140" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="142.5">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:13" ht="140" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="71.25">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="85.5">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="171">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:13" ht="168" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="168" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="171">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2" t="s">
+    <row r="14" spans="1:13" ht="112" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="128.25">
-      <c r="A14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1" t="s">
+    <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="126" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="114">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="128.25">
-      <c r="A16" s="10"/>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="2" t="s">
+    <row r="17" spans="1:15" ht="126" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="358.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="128.25">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="358.5" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="1:15" ht="360" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="360" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="221.25" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="7" t="s">
+    <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="72" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" t="s">
+      <c r="C22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:15" ht="312.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="312.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="L23" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="221.25" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="221.25" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" t="s">
+      <c r="E25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="154" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="171">
-      <c r="A26" s="10"/>
-      <c r="B26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="N29" t="s">
+      <c r="O29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="N30" t="s">
+      <c r="O30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O30" s="2" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="H46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="H47">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2744,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A17"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O29" r:id="rId1"/>
     <hyperlink ref="O30" r:id="rId2"/>
@@ -2701,7 +2764,7 @@
     <hyperlink ref="L17" r:id="rId16"/>
     <hyperlink ref="L19" r:id="rId17"/>
     <hyperlink ref="L20" r:id="rId18"/>
-    <hyperlink ref="L21" r:id="rId19" tooltip="http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.AdaBoostClassifier.html"/>
+    <hyperlink ref="L21" r:id="rId19"/>
     <hyperlink ref="L26" r:id="rId20"/>
     <hyperlink ref="L22" r:id="rId21"/>
     <hyperlink ref="L23" r:id="rId22"/>
@@ -2720,193 +2783,217 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="55.375" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="2.75" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="8.08203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="154" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="156.75">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="98" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="99.75">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="114">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="71.25">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="57">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +3001,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="K3" r:id="rId2"/>
@@ -2931,124 +3018,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="62.375" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="85.5">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="85.5">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="128.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
@@ -3067,70 +3164,70 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/origin_files/sklearn模型总结.xlsx
+++ b/origin_files/sklearn模型总结.xlsx
@@ -1545,9 +1545,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1570,6 +1567,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,7 +1851,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1911,13 +1911,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1933,19 +1933,19 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1961,19 +1961,19 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1991,19 +1991,19 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="56" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2024,16 +2024,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="84" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2054,18 +2054,18 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="140" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2085,19 +2085,19 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="140" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2154,19 +2154,19 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="70" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2218,21 +2218,21 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="168" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2255,16 +2255,16 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="168" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2287,18 +2287,18 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="112" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2320,19 +2320,19 @@
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2354,25 +2354,25 @@
         <v>23</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="126" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2388,19 +2388,19 @@
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="126" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2422,10 +2422,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="358.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:15" ht="350" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2474,19 +2474,19 @@
       <c r="J19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="360" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:15" ht="350" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2508,21 +2508,21 @@
         <v>23</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:15" ht="168" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2544,19 +2544,19 @@
         <v>23</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:15" ht="56" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2578,19 +2578,19 @@
         <v>23</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="312.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:15" ht="294" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2612,19 +2612,19 @@
         <v>23</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:15" ht="168" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2644,51 +2644,51 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:15" ht="154" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="5" t="s">
+      <c r="K25" s="8"/>
+      <c r="L25" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="154" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="2"/>
@@ -2698,10 +2698,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2784,21 +2784,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.75" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="61.25" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2837,19 +2838,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="154" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2864,19 +2865,19 @@
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="98" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2896,7 +2897,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2914,13 +2915,13 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2937,19 +2938,19 @@
         <v>23</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2968,19 +2969,19 @@
         <v>23</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="2"/>
@@ -2989,10 +2990,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3020,15 +3021,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.58203125" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3055,28 +3059,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
@@ -3084,41 +3088,41 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3129,15 +3133,15 @@
       <c r="B6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>148</v>
       </c>
     </row>

--- a/origin_files/sklearn模型总结.xlsx
+++ b/origin_files/sklearn模型总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn_有监督" sheetId="1" r:id="rId1"/>
@@ -412,43 +412,8 @@
     <t>SVC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">C : float, optional (default=1.0)：Penalty parameter
-kernel : ‘linear’, ‘poly’, ‘rbf’, ‘sigmoid’, ‘precomputed’ or a callable
-degree：‘poly’
-gamma：‘rbf’, ‘poly’ and ‘sigmoid’，默认是1/n_features
-coef0：‘poly’ and ‘sigmoid’
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>probability：是否计算概率</t>
-    </r>
-  </si>
-  <si>
     <t>需要
 probability=True</t>
-  </si>
-  <si>
-    <t>decision_function(X) #Distance of the samples X to the separating hyperplane.点到超平面的距离
-model.support_vectors_# get support vectors
-model.support_# get indices of support vectors
-model.n_support_# get number of support vectors for each class
-model.decision_function_shape='ovo'
-dec = model.decision_function([[0.6,1]])
-model.decision_function_shape='ovr'
-dec = model.decision_function([[0.6,1]])</t>
   </si>
   <si>
     <t>SVR</t>
@@ -1419,12 +1384,52 @@
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.AdaBoostClassifier.html</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C : float, optional (default=1.0)：Penalty parameter
+kernel : ‘linear’, ‘poly’, ‘rbf’, ‘sigmoid’, ‘precomputed’ or a callable
+degree：‘poly’
+gamma：‘rbf’, ‘poly’ and ‘sigmoid’，默认是1/n_features
+coef0：‘poly’ and ‘sigmoid’
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">probability：是否计算概率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decision_function_shape : ‘ovo’, ‘ovr’
+    one-vs-rest, one-vs-one</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision_function(X) #Distance of the samples X to the separating hyperplane.点到超平面的距离
+model.support_vectors_# get support vectors
+model.support_# get indices of support vectors
+model.n_support_# get number of support vectors for each class
+model.decision_function_shape='ovo'
+dec = model.decision_function([[0.6,1]])</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,6 +1498,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1534,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,6 +1588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1849,9 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2254,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -2256,7 +2277,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="168" x14ac:dyDescent="0.3">
@@ -2288,7 +2309,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="112" x14ac:dyDescent="0.3">
@@ -2324,7 +2345,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.3">
@@ -2366,15 +2387,15 @@
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2388,20 +2409,20 @@
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="3" t="s">
-        <v>67</v>
+      <c r="K16" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="126" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
@@ -2423,10 +2444,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2445,49 +2466,49 @@
     </row>
     <row r="19" spans="1:15" ht="350" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="350" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
@@ -2509,21 +2530,21 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="168" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
@@ -2545,19 +2566,19 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="56" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -2579,19 +2600,19 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="294" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -2613,19 +2634,19 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="168" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -2645,51 +2666,51 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="154" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="G25" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="154" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2699,39 +2720,39 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2813,19 +2834,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -2839,58 +2860,58 @@
     </row>
     <row r="2" spans="1:11" ht="154" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -2898,7 +2919,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2916,13 +2937,13 @@
     </row>
     <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -2939,19 +2960,19 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -2970,19 +2991,19 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2991,10 +3012,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -3046,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -3060,48 +3081,48 @@
     </row>
     <row r="2" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3110,39 +3131,39 @@
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="126" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3176,58 +3197,58 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
